--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.2402596234257223</v>
+        <v>-0.004077268808726114</v>
       </c>
       <c r="C2">
-        <v>0.1289740659310056</v>
+        <v>0.001734670105447866</v>
       </c>
       <c r="D2">
-        <v>0.1443236216615562</v>
+        <v>0.002834716992283015</v>
       </c>
       <c r="E2">
-        <v>0.1024895785097094</v>
+        <v>0.00265827914837942</v>
       </c>
       <c r="F2">
-        <v>0.1690237393467692</v>
+        <v>0.002834362477444687</v>
       </c>
       <c r="G2">
-        <v>0.1831065283869819</v>
+        <v>0.003155425960845356</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.4787104229669636</v>
+        <v>-1.088638669399597</v>
       </c>
       <c r="C3">
-        <v>0.2065683224890643</v>
+        <v>0.6239705978991525</v>
       </c>
       <c r="D3">
-        <v>0.1590682408586345</v>
+        <v>-0.2535099556622807</v>
       </c>
       <c r="E3">
-        <v>0.3449340196239425</v>
+        <v>0.5399521571403202</v>
       </c>
       <c r="F3">
-        <v>0.2685555475227113</v>
+        <v>0.68157448595139</v>
       </c>
       <c r="G3">
-        <v>0.4844691297378744</v>
+        <v>1.167456838626628</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.9241786997121868</v>
+        <v>-0.00524680157512728</v>
       </c>
       <c r="C4">
-        <v>0.3828105176038632</v>
+        <v>0.002181427705844265</v>
       </c>
       <c r="D4">
-        <v>-0.06730765454513857</v>
+        <v>0.003601488410325165</v>
       </c>
       <c r="E4">
-        <v>0.7853170076634399</v>
+        <v>0.002918057968919033</v>
       </c>
       <c r="F4">
-        <v>0.5516792205719926</v>
+        <v>0.003258911513290992</v>
       </c>
       <c r="G4">
-        <v>0.9505704319313538</v>
+        <v>0.003088840176710133</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.8368912091203764</v>
+        <v>-0.2337122727135046</v>
       </c>
       <c r="C5">
-        <v>0.2285054769982555</v>
+        <v>0.09595532867547629</v>
       </c>
       <c r="D5">
-        <v>-0.2486575527734594</v>
+        <v>0.1383068483016585</v>
       </c>
       <c r="E5">
-        <v>0.7121664616409937</v>
+        <v>0.1401701638685137</v>
       </c>
       <c r="F5">
-        <v>0.2598903523291482</v>
+        <v>0.1671309119613783</v>
       </c>
       <c r="G5">
-        <v>1.435968612729515</v>
+        <v>0.2009698270015488</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.003503634646828124</v>
+        <v>-0.1810339645254304</v>
       </c>
       <c r="C6">
-        <v>0.001287245537868394</v>
+        <v>0.09498542911763354</v>
       </c>
       <c r="D6">
-        <v>0.002688246999926852</v>
+        <v>0.1233495186230681</v>
       </c>
       <c r="E6">
-        <v>0.002404718707423785</v>
+        <v>0.1149650463638078</v>
       </c>
       <c r="F6">
-        <v>0.002303876718632026</v>
+        <v>0.1648310479856675</v>
       </c>
       <c r="G6">
-        <v>0.002703652367630494</v>
+        <v>0.1752201784729786</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-1.350912644546263</v>
+        <v>-0.6515209563663381</v>
       </c>
       <c r="C7">
-        <v>0.3521051026323275</v>
+        <v>0.2820402514701515</v>
       </c>
       <c r="D7">
-        <v>-0.006502712686075742</v>
+        <v>0.2734117728727836</v>
       </c>
       <c r="E7">
-        <v>0.8071375162714487</v>
+        <v>0.3357587416703344</v>
       </c>
       <c r="F7">
-        <v>0.492048925997595</v>
+        <v>0.4417035674836582</v>
       </c>
       <c r="G7">
-        <v>1.285424629664658</v>
+        <v>0.5831770529283626</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.00382543953678212</v>
+        <v>-0.003878081012882623</v>
       </c>
       <c r="C8">
-        <v>0.001442994847231749</v>
+        <v>0.001353341481559142</v>
       </c>
       <c r="D8">
-        <v>0.002648715319493311</v>
+        <v>0.00290234392021887</v>
       </c>
       <c r="E8">
-        <v>0.001784773826131609</v>
+        <v>0.002806628647886853</v>
       </c>
       <c r="F8">
-        <v>0.003044748916618018</v>
+        <v>0.002406877984744666</v>
       </c>
       <c r="G8">
-        <v>0.002869378013032553</v>
+        <v>0.00322627714642722</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.6801399922205948</v>
+        <v>-0.004356324006635926</v>
       </c>
       <c r="C9">
-        <v>0.1583268575017467</v>
+        <v>0.001896659054261989</v>
       </c>
       <c r="D9">
-        <v>0.1050401538090348</v>
+        <v>0.002898306429297505</v>
       </c>
       <c r="E9">
-        <v>0.4182301807131418</v>
+        <v>0.002732178498912169</v>
       </c>
       <c r="F9">
-        <v>0.7044741834438314</v>
+        <v>0.003154308065107817</v>
       </c>
       <c r="G9">
-        <v>0.6048688586173121</v>
+        <v>0.003022922996973969</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.8791572186523865</v>
+        <v>-0.003318853848460854</v>
       </c>
       <c r="C10">
-        <v>0.3551671562944065</v>
+        <v>0.001718560622395108</v>
       </c>
       <c r="D10">
-        <v>0.4803126567514871</v>
+        <v>0.002407053800062888</v>
       </c>
       <c r="E10">
-        <v>0.3547839053580301</v>
+        <v>0.001840338768779793</v>
       </c>
       <c r="F10">
-        <v>0.1925867230332519</v>
+        <v>0.002889453931748437</v>
       </c>
       <c r="G10">
-        <v>1.141588444168948</v>
+        <v>0.002985246331785225</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.03363233161448095</v>
+        <v>-0.003992540840089862</v>
       </c>
       <c r="C11">
-        <v>0.01356611448886186</v>
+        <v>0.001631970967795472</v>
       </c>
       <c r="D11">
-        <v>0.02376026242378731</v>
+        <v>0.003157369018580445</v>
       </c>
       <c r="E11">
-        <v>0.02283461074750869</v>
+        <v>0.002253261056328127</v>
       </c>
       <c r="F11">
-        <v>0.02082020802393891</v>
+        <v>0.002687926801001513</v>
       </c>
       <c r="G11">
-        <v>0.02738996700991878</v>
+        <v>0.003226057024589364</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-1.337016891032721</v>
+        <v>-0.8086576426049553</v>
       </c>
       <c r="C12">
-        <v>0.4075419737436807</v>
+        <v>0.03012580684666954</v>
       </c>
       <c r="D12">
-        <v>-0.2609220337720879</v>
+        <v>0.3098555546815779</v>
       </c>
       <c r="E12">
-        <v>0.7178574568940321</v>
+        <v>0.2552300586179287</v>
       </c>
       <c r="F12">
-        <v>0.4642415679447598</v>
+        <v>0.4788786460704226</v>
       </c>
       <c r="G12">
-        <v>1.663790956240051</v>
+        <v>0.8480549371461001</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.004558188467079093</v>
+        <v>-0.9656268169061937</v>
       </c>
       <c r="C13">
-        <v>0.001728371933068889</v>
+        <v>0.4744150082540261</v>
       </c>
       <c r="D13">
-        <v>0.003072321041753272</v>
+        <v>-0.1035413427622916</v>
       </c>
       <c r="E13">
-        <v>0.002619253618092631</v>
+        <v>0.9533006050329266</v>
       </c>
       <c r="F13">
-        <v>0.002800844036310524</v>
+        <v>0.3858955179739141</v>
       </c>
       <c r="G13">
-        <v>0.002885557572531718</v>
+        <v>1.008688527763421</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.6733530230982925</v>
+        <v>-1.129720695220472</v>
       </c>
       <c r="C14">
-        <v>0.3019630792093129</v>
+        <v>0.6803924664538105</v>
       </c>
       <c r="D14">
-        <v>-0.0695591224925205</v>
+        <v>0.3648881824919432</v>
       </c>
       <c r="E14">
-        <v>0.6393656833446294</v>
+        <v>0.5158752126991049</v>
       </c>
       <c r="F14">
-        <v>0.08338805376550462</v>
+        <v>0.1834370910951679</v>
       </c>
       <c r="G14">
-        <v>1.206270440037022</v>
+        <v>1.26255869936422</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.003037587163402926</v>
+        <v>-0.03492273689623755</v>
       </c>
       <c r="C15">
-        <v>0.001483768498959209</v>
+        <v>0.009179510876852166</v>
       </c>
       <c r="D15">
-        <v>0.0022077213968419</v>
+        <v>0.02667975319428834</v>
       </c>
       <c r="E15">
-        <v>0.001651691793453651</v>
+        <v>0.02239518916408662</v>
       </c>
       <c r="F15">
-        <v>0.002498599446252756</v>
+        <v>0.025735625888051</v>
       </c>
       <c r="G15">
-        <v>0.002759140110221383</v>
+        <v>0.03056085245765009</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.002766855572897093</v>
+        <v>-0.004028525663288855</v>
       </c>
       <c r="C16">
-        <v>0.001117422897719406</v>
+        <v>0.00195648303430974</v>
       </c>
       <c r="D16">
-        <v>0.002220701605733416</v>
+        <v>0.00279855777789471</v>
       </c>
       <c r="E16">
-        <v>0.001776478532315001</v>
+        <v>0.002555397191432473</v>
       </c>
       <c r="F16">
-        <v>0.002474947069617808</v>
+        <v>0.002913395392191072</v>
       </c>
       <c r="G16">
-        <v>0.002467229546345422</v>
+        <v>0.002994644466169234</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1976871657118657</v>
+        <v>-0.004188650761837985</v>
       </c>
       <c r="C17">
-        <v>0.07212481766781391</v>
+        <v>0.001928403215921193</v>
       </c>
       <c r="D17">
-        <v>0.1479210950080763</v>
+        <v>0.002734048216004202</v>
       </c>
       <c r="E17">
-        <v>0.1248884647693486</v>
+        <v>0.002799783082042167</v>
       </c>
       <c r="F17">
-        <v>0.1572214478198405</v>
+        <v>0.002568961466608799</v>
       </c>
       <c r="G17">
-        <v>0.1582129590510822</v>
+        <v>0.003383303587197036</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.003409248119291736</v>
+        <v>-0.005015679424281012</v>
       </c>
       <c r="C18">
-        <v>0.001925709586955285</v>
+        <v>0.001788289655655514</v>
       </c>
       <c r="D18">
-        <v>0.002264404392077155</v>
+        <v>0.003359885565343766</v>
       </c>
       <c r="E18">
-        <v>0.002111565801268794</v>
+        <v>0.003049983621883692</v>
       </c>
       <c r="F18">
-        <v>0.002673283457949484</v>
+        <v>0.003247460005622092</v>
       </c>
       <c r="G18">
-        <v>0.002458309066183371</v>
+        <v>0.003168522601229732</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.003376920852469682</v>
+        <v>-0.5696033060165768</v>
       </c>
       <c r="C19">
-        <v>0.001271243056928182</v>
+        <v>0.1782369240022639</v>
       </c>
       <c r="D19">
-        <v>0.002524869899929227</v>
+        <v>0.2249561645567779</v>
       </c>
       <c r="E19">
-        <v>0.00244653567990315</v>
+        <v>0.2618778074795487</v>
       </c>
       <c r="F19">
-        <v>0.002261361208844055</v>
+        <v>0.4256144262714688</v>
       </c>
       <c r="G19">
-        <v>0.002684116605332962</v>
+        <v>0.5396500800651133</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.5005062134830918</v>
+        <v>-0.4357051581871633</v>
       </c>
       <c r="C20">
-        <v>0.09404340431394528</v>
+        <v>0.14231893865903</v>
       </c>
       <c r="D20">
-        <v>0.3057826519499238</v>
+        <v>0.2005579117908578</v>
       </c>
       <c r="E20">
-        <v>0.3564687777429377</v>
+        <v>0.2960197344266267</v>
       </c>
       <c r="F20">
-        <v>0.273612145893766</v>
+        <v>0.3252863660386834</v>
       </c>
       <c r="G20">
-        <v>0.4124694652201559</v>
+        <v>0.4634627058076357</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.02998520737773598</v>
+        <v>-1.595449725043033</v>
       </c>
       <c r="C21">
-        <v>0.01462024284001769</v>
+        <v>0.6458939672140104</v>
       </c>
       <c r="D21">
-        <v>0.02182728244286882</v>
+        <v>-0.09309429133851971</v>
       </c>
       <c r="E21">
-        <v>0.01830052181489642</v>
+        <v>0.8803981995447984</v>
       </c>
       <c r="F21">
-        <v>0.02391978569070566</v>
+        <v>1.218968191359113</v>
       </c>
       <c r="G21">
-        <v>0.02450019118757131</v>
+        <v>0.9846468663165769</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.5537180095688242</v>
+        <v>-0.9252359922749688</v>
       </c>
       <c r="C22">
-        <v>0.1713359718068064</v>
+        <v>0.253509394350897</v>
       </c>
       <c r="D22">
-        <v>0.2639468005697821</v>
+        <v>0.2462906215990157</v>
       </c>
       <c r="E22">
-        <v>0.3125602104526432</v>
+        <v>0.509202749738337</v>
       </c>
       <c r="F22">
-        <v>0.33428873568679</v>
+        <v>0.6495764248073299</v>
       </c>
       <c r="G22">
-        <v>0.4685134618073449</v>
+        <v>0.9108447277047912</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.003090037038658368</v>
+        <v>-0.004626576516838754</v>
       </c>
       <c r="C23">
-        <v>0.002120855127183304</v>
+        <v>0.001797672301371793</v>
       </c>
       <c r="D23">
-        <v>0.002028186392102089</v>
+        <v>0.003061515547899276</v>
       </c>
       <c r="E23">
-        <v>0.001929951206113675</v>
+        <v>0.002850605513287962</v>
       </c>
       <c r="F23">
-        <v>0.002328215493289832</v>
+        <v>0.003366113029428106</v>
       </c>
       <c r="G23">
-        <v>0.002509739535234628</v>
+        <v>0.002980417793749682</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.9512879139173336</v>
+        <v>-0.00382799465122893</v>
       </c>
       <c r="C24">
-        <v>0.4945056243259586</v>
+        <v>0.001597224131539896</v>
       </c>
       <c r="D24">
-        <v>0.4216842429647477</v>
+        <v>0.002684689559149539</v>
       </c>
       <c r="E24">
-        <v>0.6392313858895649</v>
+        <v>0.002290208549382693</v>
       </c>
       <c r="F24">
-        <v>0.1550720998388304</v>
+        <v>0.003088464070851212</v>
       </c>
       <c r="G24">
-        <v>0.887108403476462</v>
+        <v>0.00305880799005072</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.004071895689374761</v>
+        <v>-1.14093705882711</v>
       </c>
       <c r="C25">
-        <v>0.001788146585801094</v>
+        <v>0.5588054864926858</v>
       </c>
       <c r="D25">
-        <v>0.002832657094086712</v>
+        <v>0.4258567866535494</v>
       </c>
       <c r="E25">
-        <v>0.002105879904702304</v>
+        <v>0.3514452336627998</v>
       </c>
       <c r="F25">
-        <v>0.002666355253917778</v>
+        <v>0.5432586902400675</v>
       </c>
       <c r="G25">
-        <v>0.002989589480659533</v>
+        <v>1.036238039038164</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.004209716396403541</v>
+        <v>-0.9380127706474144</v>
       </c>
       <c r="C26">
-        <v>0.001644585448690734</v>
+        <v>0.31716702660569</v>
       </c>
       <c r="D26">
-        <v>0.002374996106255452</v>
+        <v>-0.02034118535953808</v>
       </c>
       <c r="E26">
-        <v>0.001760116469555718</v>
+        <v>0.5047515144195724</v>
       </c>
       <c r="F26">
-        <v>0.002983634780074978</v>
+        <v>0.2603034023376722</v>
       </c>
       <c r="G26">
-        <v>0.003526017326622507</v>
+        <v>1.395803860816707</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.003522011534583769</v>
+        <v>-0.003957882931029636</v>
       </c>
       <c r="C27">
-        <v>0.001577968370869162</v>
+        <v>0.001680781804395361</v>
       </c>
       <c r="D27">
-        <v>0.002469667915904621</v>
+        <v>0.002618528980225365</v>
       </c>
       <c r="E27">
-        <v>0.002167311080058864</v>
+        <v>0.002190119367512479</v>
       </c>
       <c r="F27">
-        <v>0.002717611602795335</v>
+        <v>0.003122645545177398</v>
       </c>
       <c r="G27">
-        <v>0.002597635835327718</v>
+        <v>0.003275197404962392</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.003575530933603723</v>
+        <v>-0.2283201904828649</v>
       </c>
       <c r="C28">
-        <v>0.001513132374213403</v>
+        <v>0.1184614770644654</v>
       </c>
       <c r="D28">
-        <v>0.002652175692144372</v>
+        <v>0.1206790665129191</v>
       </c>
       <c r="E28">
-        <v>0.001867698421401648</v>
+        <v>0.1397026285189152</v>
       </c>
       <c r="F28">
-        <v>0.00259906688380645</v>
+        <v>0.1780768571581548</v>
       </c>
       <c r="G28">
-        <v>0.002874550403776586</v>
+        <v>0.1893589862809069</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.7024868493827335</v>
+        <v>-0.7547592591440024</v>
       </c>
       <c r="C29">
-        <v>0.2317856242026083</v>
+        <v>0.2976531259688671</v>
       </c>
       <c r="D29">
-        <v>0.2273252959344917</v>
+        <v>0.3991246821349907</v>
       </c>
       <c r="E29">
-        <v>0.7044970421870453</v>
+        <v>0.4123037543097583</v>
       </c>
       <c r="F29">
-        <v>0.1183503438940092</v>
+        <v>0.3324973920088359</v>
       </c>
       <c r="G29">
-        <v>0.8802519397732986</v>
+        <v>0.5885302418340431</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.003971040572876754</v>
+        <v>-0.8892669720978185</v>
       </c>
       <c r="C30">
-        <v>0.001616493931729797</v>
+        <v>0.1887444203916838</v>
       </c>
       <c r="D30">
-        <v>0.00286716223925806</v>
+        <v>0.3718201423490082</v>
       </c>
       <c r="E30">
-        <v>0.002545812123576639</v>
+        <v>0.5361373432509416</v>
       </c>
       <c r="F30">
-        <v>0.002400773759902947</v>
+        <v>0.424300307670683</v>
       </c>
       <c r="G30">
-        <v>0.002799670721403723</v>
+        <v>0.6744800786188482</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.7311468875883137</v>
+        <v>-0.005105060080600659</v>
       </c>
       <c r="C31">
-        <v>0.2791346539836356</v>
+        <v>0.002110459444394231</v>
       </c>
       <c r="D31">
-        <v>0.1806918442214291</v>
+        <v>0.003100351389057451</v>
       </c>
       <c r="E31">
-        <v>0.426522704907469</v>
+        <v>0.003021745225855881</v>
       </c>
       <c r="F31">
-        <v>0.4469423981543043</v>
+        <v>0.003409833255315637</v>
       </c>
       <c r="G31">
-        <v>0.8625277297510675</v>
+        <v>0.003218399487134842</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.5678819636829749</v>
+        <v>-0.005207457919276244</v>
       </c>
       <c r="C32">
-        <v>0.2088922480215329</v>
+        <v>0.001435016362509961</v>
       </c>
       <c r="D32">
-        <v>0.2806565297746837</v>
+        <v>0.003679096697238645</v>
       </c>
       <c r="E32">
-        <v>0.2731508883792497</v>
+        <v>0.002594563414262045</v>
       </c>
       <c r="F32">
-        <v>0.2802964433965637</v>
+        <v>0.003453872253694883</v>
       </c>
       <c r="G32">
-        <v>0.6743194699984961</v>
+        <v>0.003438238997830986</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.8422982013320596</v>
+        <v>-1.310705848177265</v>
       </c>
       <c r="C33">
-        <v>0.4268821850246671</v>
+        <v>0.7684533285917794</v>
       </c>
       <c r="D33">
-        <v>0.03718809080974076</v>
+        <v>0.1822208095444823</v>
       </c>
       <c r="E33">
-        <v>0.6496768116776587</v>
+        <v>0.3195293903760301</v>
       </c>
       <c r="F33">
-        <v>0.3354403591257816</v>
+        <v>0.584936138530248</v>
       </c>
       <c r="G33">
-        <v>0.9239818802237494</v>
+        <v>1.218925663068124</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.003653289048786047</v>
+        <v>-1.380714677830725</v>
       </c>
       <c r="C34">
-        <v>0.001187590698553662</v>
+        <v>0.6424381528243542</v>
       </c>
       <c r="D34">
-        <v>0.002730739489449122</v>
+        <v>-0.2347968254257951</v>
       </c>
       <c r="E34">
-        <v>0.00195260508449868</v>
+        <v>0.6706534046287838</v>
       </c>
       <c r="F34">
-        <v>0.002684863845821429</v>
+        <v>0.8961927384458418</v>
       </c>
       <c r="G34">
-        <v>0.002926320355695061</v>
+        <v>1.259222777861724</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.003140621820719663</v>
+        <v>-0.004301478179185287</v>
       </c>
       <c r="C35">
-        <v>0.001316792308465557</v>
+        <v>0.002129444330205866</v>
       </c>
       <c r="D35">
-        <v>0.002137300850553904</v>
+        <v>0.002721885952042498</v>
       </c>
       <c r="E35">
-        <v>0.00209785709617993</v>
+        <v>0.002199079574474105</v>
       </c>
       <c r="F35">
-        <v>0.002467410921896479</v>
+        <v>0.003280155199200398</v>
       </c>
       <c r="G35">
-        <v>0.002769807508527113</v>
+        <v>0.003247489596704578</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.1521640518600122</v>
+        <v>-0.005170457915526517</v>
       </c>
       <c r="C36">
-        <v>0.0761486569672867</v>
+        <v>0.002187687326833414</v>
       </c>
       <c r="D36">
-        <v>0.1310611050980862</v>
+        <v>0.003333576598753873</v>
       </c>
       <c r="E36">
-        <v>0.0692662002079632</v>
+        <v>0.003213643249636113</v>
       </c>
       <c r="F36">
-        <v>0.1311382541715271</v>
+        <v>0.003157100423246073</v>
       </c>
       <c r="G36">
-        <v>0.1705960731269109</v>
+        <v>0.003089632099259473</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.003811556571550544</v>
+        <v>-0.7151069937164704</v>
       </c>
       <c r="C37">
-        <v>0.002170795322551538</v>
+        <v>0.3154952707428065</v>
       </c>
       <c r="D37">
-        <v>0.002680308412757229</v>
+        <v>0.3051381514075719</v>
       </c>
       <c r="E37">
-        <v>0.00214331311585866</v>
+        <v>0.5046361299949969</v>
       </c>
       <c r="F37">
-        <v>0.002527937616907322</v>
+        <v>0.2762242339263717</v>
       </c>
       <c r="G37">
-        <v>0.002605175321780279</v>
+        <v>0.712086770233289</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.002188198847419146</v>
+        <v>-0.5168935150628887</v>
       </c>
       <c r="C38">
-        <v>0.001068520265694134</v>
+        <v>0.2313033579938578</v>
       </c>
       <c r="D38">
-        <v>0.001828573491001278</v>
+        <v>0.3429778332727891</v>
       </c>
       <c r="E38">
-        <v>0.001567355782204199</v>
+        <v>0.3430687408766751</v>
       </c>
       <c r="F38">
-        <v>0.002291834265750701</v>
+        <v>0.2637332306459855</v>
       </c>
       <c r="G38">
-        <v>0.002183853786493562</v>
+        <v>0.4100739235594177</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.003215282123485266</v>
+        <v>-0.003445131753104586</v>
       </c>
       <c r="C39">
-        <v>0.001459293928495345</v>
+        <v>0.001520902975500656</v>
       </c>
       <c r="D39">
-        <v>0.002462203626511185</v>
+        <v>0.002629320611755725</v>
       </c>
       <c r="E39">
-        <v>0.002182211386123725</v>
+        <v>0.00234547714365321</v>
       </c>
       <c r="F39">
-        <v>0.002166261858666614</v>
+        <v>0.002754692390642379</v>
       </c>
       <c r="G39">
-        <v>0.002717639795804852</v>
+        <v>0.002862140470380641</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.4828180955943986</v>
+        <v>-1.539742122050322</v>
       </c>
       <c r="C40">
-        <v>0.177342193150791</v>
+        <v>0.8822606355763557</v>
       </c>
       <c r="D40">
-        <v>0.3144801548172337</v>
+        <v>-0.3937874639103419</v>
       </c>
       <c r="E40">
-        <v>0.2327797431985902</v>
+        <v>0.6184280304823615</v>
       </c>
       <c r="F40">
-        <v>0.3541296153551731</v>
+        <v>0.9162664423564095</v>
       </c>
       <c r="G40">
-        <v>0.4004249137658091</v>
+        <v>1.492405374190764</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.009242341854248</v>
+        <v>-1.082615823573543</v>
       </c>
       <c r="C41">
-        <v>0.2835863009126469</v>
+        <v>0.5771749074767728</v>
       </c>
       <c r="D41">
-        <v>0.05826691953087171</v>
+        <v>0.02750873835129805</v>
       </c>
       <c r="E41">
-        <v>0.7259897950143267</v>
+        <v>0.7887468491051725</v>
       </c>
       <c r="F41">
-        <v>-0.07404439887330738</v>
+        <v>0.3732350154232183</v>
       </c>
       <c r="G41">
-        <v>1.575260949434243</v>
+        <v>1.268177429155473</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.6463714944235943</v>
+        <v>-0.2090168208843203</v>
       </c>
       <c r="C42">
-        <v>0.5005883317983003</v>
+        <v>0.06742253902373585</v>
       </c>
       <c r="D42">
-        <v>-0.06883768748826316</v>
+        <v>0.1353042349486701</v>
       </c>
       <c r="E42">
-        <v>0.5601866450591927</v>
+        <v>0.1414893231360662</v>
       </c>
       <c r="F42">
-        <v>0.242589943830449</v>
+        <v>0.1657072947004943</v>
       </c>
       <c r="G42">
-        <v>0.8450070177169779</v>
+        <v>0.1918874410255012</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.6221787707870875</v>
+        <v>-0.005476282480580972</v>
       </c>
       <c r="C43">
-        <v>0.2774211731094036</v>
+        <v>0.002613342356074794</v>
       </c>
       <c r="D43">
-        <v>0.3583493384494199</v>
+        <v>0.00312348264937639</v>
       </c>
       <c r="E43">
-        <v>0.4636409072073294</v>
+        <v>0.002592527649463753</v>
       </c>
       <c r="F43">
-        <v>0.3213841911158137</v>
+        <v>0.003613309104956224</v>
       </c>
       <c r="G43">
-        <v>0.3981576800258275</v>
+        <v>0.003478628111963832</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.004466297749886203</v>
+        <v>-0.003967789048421224</v>
       </c>
       <c r="C44">
-        <v>0.001855671052235218</v>
+        <v>0.001894575478096423</v>
       </c>
       <c r="D44">
-        <v>0.002979181314142952</v>
+        <v>0.003016438384180633</v>
       </c>
       <c r="E44">
-        <v>0.002469836665624796</v>
+        <v>0.002617830480642331</v>
       </c>
       <c r="F44">
-        <v>0.002858095599917049</v>
+        <v>0.00274277926751138</v>
       </c>
       <c r="G44">
-        <v>0.002855909559894451</v>
+        <v>0.002837919769375411</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.8415581427127797</v>
+        <v>-0.004281809328163873</v>
       </c>
       <c r="C45">
-        <v>0.4217124979244324</v>
+        <v>0.002016826476539253</v>
       </c>
       <c r="D45">
-        <v>-0.01107201342391093</v>
+        <v>0.003093440030859373</v>
       </c>
       <c r="E45">
-        <v>0.657820593842374</v>
+        <v>0.002276270995626001</v>
       </c>
       <c r="F45">
-        <v>0.65345192512107</v>
+        <v>0.003047939078002781</v>
       </c>
       <c r="G45">
-        <v>0.7018808243087734</v>
+        <v>0.00312845932042731</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.9514366856753889</v>
+        <v>-0.8722257841361244</v>
       </c>
       <c r="C46">
-        <v>0.1907581350822199</v>
+        <v>0.07783399027710987</v>
       </c>
       <c r="D46">
-        <v>-0.0622592407218415</v>
+        <v>-0.07805636918761109</v>
       </c>
       <c r="E46">
-        <v>0.935483192508335</v>
+        <v>0.4945354395454862</v>
       </c>
       <c r="F46">
-        <v>0.05163154582965801</v>
+        <v>0.2705429577998716</v>
       </c>
       <c r="G46">
-        <v>1.379236414411274</v>
+        <v>1.483557616417108</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.9780047501107727</v>
+        <v>-0.814377536485701</v>
       </c>
       <c r="C47">
-        <v>0.3134138353129912</v>
+        <v>0.324674620700406</v>
       </c>
       <c r="D47">
-        <v>-0.1427763601255262</v>
+        <v>0.2150222286150185</v>
       </c>
       <c r="E47">
-        <v>0.6270034810099901</v>
+        <v>0.4564023451196589</v>
       </c>
       <c r="F47">
-        <v>0.5250854078734531</v>
+        <v>0.4226031037720679</v>
       </c>
       <c r="G47">
-        <v>1.183669326117949</v>
+        <v>0.938790626875977</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.1800054830179686</v>
+        <v>-0.003483947810890008</v>
       </c>
       <c r="C48">
-        <v>0.08751531688917485</v>
+        <v>0.001212128224696736</v>
       </c>
       <c r="D48">
-        <v>0.1034955710303332</v>
+        <v>0.002623093791374389</v>
       </c>
       <c r="E48">
-        <v>0.1171905731036352</v>
+        <v>0.002409018041710585</v>
       </c>
       <c r="F48">
-        <v>0.1572005217759259</v>
+        <v>0.002592911914723916</v>
       </c>
       <c r="G48">
-        <v>0.1662222742335648</v>
+        <v>0.003158158132437015</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.5745539865022101</v>
+        <v>-0.9704037685287131</v>
       </c>
       <c r="C49">
-        <v>0.06439432250618593</v>
+        <v>0.6367814547511461</v>
       </c>
       <c r="D49">
-        <v>0.1899178039644842</v>
+        <v>0.07499584633546123</v>
       </c>
       <c r="E49">
-        <v>0.2625092762357527</v>
+        <v>0.6978194906399852</v>
       </c>
       <c r="F49">
-        <v>0.5185471802049597</v>
+        <v>0.1665363539318347</v>
       </c>
       <c r="G49">
-        <v>0.5759857788444606</v>
+        <v>1.263138791247437</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.5537231962389494</v>
+        <v>-0.8996086732481821</v>
       </c>
       <c r="C50">
-        <v>-0.02033511856306799</v>
+        <v>0.3532577141940452</v>
       </c>
       <c r="D50">
-        <v>0.2632442244479581</v>
+        <v>0.04460692814327591</v>
       </c>
       <c r="E50">
-        <v>0.2230478780088667</v>
+        <v>0.6959791828366808</v>
       </c>
       <c r="F50">
-        <v>0.3623013722755825</v>
+        <v>0.09406066203530959</v>
       </c>
       <c r="G50">
-        <v>0.5708733485091025</v>
+        <v>1.281652772877506</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.003814271290469233</v>
+        <v>-0.2871116065706398</v>
       </c>
       <c r="C51">
-        <v>0.001347043472258505</v>
+        <v>0.09421459480885749</v>
       </c>
       <c r="D51">
-        <v>0.002664117509781107</v>
+        <v>0.1782549556265308</v>
       </c>
       <c r="E51">
-        <v>0.002212153118620925</v>
+        <v>0.2127560151941687</v>
       </c>
       <c r="F51">
-        <v>0.002748193836320666</v>
+        <v>0.1626262670491707</v>
       </c>
       <c r="G51">
-        <v>0.002887020302069227</v>
+        <v>0.1791857016591679</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.004470236665482972</v>
+        <v>-1.213605687986374</v>
       </c>
       <c r="C52">
-        <v>0.001667752011235967</v>
+        <v>0.5597181044116867</v>
       </c>
       <c r="D52">
-        <v>0.003088813276845623</v>
+        <v>0.04215039607569493</v>
       </c>
       <c r="E52">
-        <v>0.002601008945870341</v>
+        <v>0.7275400168496899</v>
       </c>
       <c r="F52">
-        <v>0.002604819706391817</v>
+        <v>0.1043470596380391</v>
       </c>
       <c r="G52">
-        <v>0.002986134047489841</v>
+        <v>1.479340759766719</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.4512990339389842</v>
+        <v>-1.001058732093979</v>
       </c>
       <c r="C53">
-        <v>0.08245085035913748</v>
+        <v>0.3044236658978971</v>
       </c>
       <c r="D53">
-        <v>0.2593503901837442</v>
+        <v>0.2100195665682321</v>
       </c>
       <c r="E53">
-        <v>0.4266144233866608</v>
+        <v>0.579548591590726</v>
       </c>
       <c r="F53">
-        <v>0.313863460029226</v>
+        <v>0.7093330918990243</v>
       </c>
       <c r="G53">
-        <v>0.3233623683087823</v>
+        <v>0.9065054711258491</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.003905433792549982</v>
+        <v>-0.2281174119206184</v>
       </c>
       <c r="C54">
-        <v>0.002225909718906962</v>
+        <v>0.1059263974234053</v>
       </c>
       <c r="D54">
-        <v>0.002255571149358188</v>
+        <v>0.1503019390222298</v>
       </c>
       <c r="E54">
-        <v>0.002381675377747197</v>
+        <v>0.1258850632759488</v>
       </c>
       <c r="F54">
-        <v>0.002535297263962992</v>
+        <v>0.1701881869749883</v>
       </c>
       <c r="G54">
-        <v>0.002874395879780646</v>
+        <v>0.1880395580456079</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.6464986902687611</v>
+        <v>-0.9697380076187625</v>
       </c>
       <c r="C55">
-        <v>0.01387835840172803</v>
+        <v>0.05381935078957971</v>
       </c>
       <c r="D55">
-        <v>0.4328051461421741</v>
+        <v>-0.01359190899142739</v>
       </c>
       <c r="E55">
-        <v>0.3437498894546266</v>
+        <v>0.575560217516449</v>
       </c>
       <c r="F55">
-        <v>0.3879568784702397</v>
+        <v>0.1590967507530232</v>
       </c>
       <c r="G55">
-        <v>0.5664347698850547</v>
+        <v>1.525407748755331</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.1708251142104337</v>
+        <v>-0.00447768067052236</v>
       </c>
       <c r="C56">
-        <v>0.07390841405404323</v>
+        <v>0.001534883810037534</v>
       </c>
       <c r="D56">
-        <v>0.1150223031869867</v>
+        <v>0.003139568295190977</v>
       </c>
       <c r="E56">
-        <v>0.1253281176475026</v>
+        <v>0.002489634163882887</v>
       </c>
       <c r="F56">
-        <v>0.1229092718372585</v>
+        <v>0.002990972834065643</v>
       </c>
       <c r="G56">
-        <v>0.1858638253767669</v>
+        <v>0.003504711197569405</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.03078246347988428</v>
+        <v>-1.103635521895456</v>
       </c>
       <c r="C57">
-        <v>0.01754098196748039</v>
+        <v>0.3251666354564702</v>
       </c>
       <c r="D57">
-        <v>0.02070918626168015</v>
+        <v>0.1791284575620236</v>
       </c>
       <c r="E57">
-        <v>0.02018597053314121</v>
+        <v>0.6908145667552862</v>
       </c>
       <c r="F57">
-        <v>0.02212202401177277</v>
+        <v>0.4050908272845026</v>
       </c>
       <c r="G57">
-        <v>0.02510545732668832</v>
+        <v>1.189117033868467</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.8254431353509077</v>
+        <v>-1.029683239484804</v>
       </c>
       <c r="C58">
-        <v>0.2807930228518372</v>
+        <v>0.4772255554461255</v>
       </c>
       <c r="D58">
-        <v>0.07403916865808784</v>
+        <v>0.1681455215516512</v>
       </c>
       <c r="E58">
-        <v>0.6040417502124832</v>
+        <v>0.7424095644322242</v>
       </c>
       <c r="F58">
-        <v>-0.02287869412410799</v>
+        <v>0.4525364096678025</v>
       </c>
       <c r="G58">
-        <v>1.504989127947854</v>
+        <v>0.9374046869185755</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.9515861218362379</v>
+        <v>-1.303975935424981</v>
       </c>
       <c r="C59">
-        <v>0.2067428616813706</v>
+        <v>0.7455838053869044</v>
       </c>
       <c r="D59">
-        <v>-0.3536854510586324</v>
+        <v>-0.3826467568519781</v>
       </c>
       <c r="E59">
-        <v>0.6808893179852732</v>
+        <v>0.9555648481560516</v>
       </c>
       <c r="F59">
-        <v>0.7403845869565099</v>
+        <v>0.6669542919712221</v>
       </c>
       <c r="G59">
-        <v>1.223925304549668</v>
+        <v>1.385021370363006</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.9874313462274967</v>
+        <v>-0.004565517959649836</v>
       </c>
       <c r="C60">
-        <v>0.347061204995361</v>
+        <v>0.0017277821455952</v>
       </c>
       <c r="D60">
-        <v>0.1696331649142954</v>
+        <v>0.003192784358017005</v>
       </c>
       <c r="E60">
-        <v>0.7090013901584722</v>
+        <v>0.002619820061687812</v>
       </c>
       <c r="F60">
-        <v>0.3813324327354884</v>
+        <v>0.003109544369083229</v>
       </c>
       <c r="G60">
-        <v>0.912643238390981</v>
+        <v>0.003270772566557592</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.2488436835848924</v>
+        <v>-0.003739873353728159</v>
       </c>
       <c r="C61">
-        <v>0.1406091034596619</v>
+        <v>0.001277226465809325</v>
       </c>
       <c r="D61">
-        <v>0.1768540940313141</v>
+        <v>0.002915728336943874</v>
       </c>
       <c r="E61">
-        <v>0.109839078334002</v>
+        <v>0.002527604970094878</v>
       </c>
       <c r="F61">
-        <v>0.1607394278114054</v>
+        <v>0.002591001291088918</v>
       </c>
       <c r="G61">
-        <v>0.1615215566012712</v>
+        <v>0.003142645362078681</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.751234428362329</v>
+        <v>-0.003999328650453745</v>
       </c>
       <c r="C62">
-        <v>0.486484212438235</v>
+        <v>0.001984484075754749</v>
       </c>
       <c r="D62">
-        <v>0.09565832823734612</v>
+        <v>0.00297051393245276</v>
       </c>
       <c r="E62">
-        <v>0.5626673802374859</v>
+        <v>0.002788201639317672</v>
       </c>
       <c r="F62">
-        <v>0.4673838133161762</v>
+        <v>0.002272838620686625</v>
       </c>
       <c r="G62">
-        <v>0.465096275211501</v>
+        <v>0.0031167680381715</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.03009906259932016</v>
+        <v>-0.003778909583663362</v>
       </c>
       <c r="C63">
-        <v>0.01632890155702725</v>
+        <v>0.001543762031325537</v>
       </c>
       <c r="D63">
-        <v>0.02001481086974836</v>
+        <v>0.002650765504302994</v>
       </c>
       <c r="E63">
-        <v>0.02095371572074515</v>
+        <v>0.002583699532639625</v>
       </c>
       <c r="F63">
-        <v>0.02113808915749394</v>
+        <v>0.002939846232752104</v>
       </c>
       <c r="G63">
-        <v>0.02557784080615007</v>
+        <v>0.002936908931887303</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.1753845160603465</v>
+        <v>-0.005259827926902908</v>
       </c>
       <c r="C64">
-        <v>0.1088342805342388</v>
+        <v>0.002146311993602646</v>
       </c>
       <c r="D64">
-        <v>0.1126132240792205</v>
+        <v>0.003372891982858243</v>
       </c>
       <c r="E64">
-        <v>0.1174337887205815</v>
+        <v>0.002942325652054581</v>
       </c>
       <c r="F64">
-        <v>0.1435790601362338</v>
+        <v>0.00346659722756904</v>
       </c>
       <c r="G64">
-        <v>0.1529361906281606</v>
+        <v>0.003139480640436421</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.02577261587376459</v>
+        <v>-0.2421855330027981</v>
       </c>
       <c r="C65">
-        <v>0.01394805011810524</v>
+        <v>0.1062150248917556</v>
       </c>
       <c r="D65">
-        <v>0.0203389203031367</v>
+        <v>0.1447552210065434</v>
       </c>
       <c r="E65">
-        <v>0.0172005015712755</v>
+        <v>0.1289177695663913</v>
       </c>
       <c r="F65">
-        <v>0.01948922796554919</v>
+        <v>0.2035338945645838</v>
       </c>
       <c r="G65">
-        <v>0.0247569546420619</v>
+        <v>0.184364945136525</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.1992313217273608</v>
+        <v>-0.03785144331422108</v>
       </c>
       <c r="C66">
-        <v>0.05720699300744834</v>
+        <v>0.01896832872515768</v>
       </c>
       <c r="D66">
-        <v>0.1360213014681742</v>
+        <v>0.02467410552980114</v>
       </c>
       <c r="E66">
-        <v>0.1546392309364262</v>
+        <v>0.02288950176567943</v>
       </c>
       <c r="F66">
-        <v>0.1254086958766485</v>
+        <v>0.0277483573057482</v>
       </c>
       <c r="G66">
-        <v>0.1806392229019493</v>
+        <v>0.0294464640991935</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.5487078355569576</v>
+        <v>-0.7138134289859646</v>
       </c>
       <c r="C67">
-        <v>0.3458420384702788</v>
+        <v>0.3178917950255739</v>
       </c>
       <c r="D67">
-        <v>0.2341390681597117</v>
+        <v>0.1550198958583162</v>
       </c>
       <c r="E67">
-        <v>0.3494136066303715</v>
+        <v>0.4675806610199567</v>
       </c>
       <c r="F67">
-        <v>0.2842625603133593</v>
+        <v>0.4283721684773236</v>
       </c>
       <c r="G67">
-        <v>0.5297378045057969</v>
+        <v>0.4470774837151876</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.02787582302061367</v>
+        <v>-0.004568293535658396</v>
       </c>
       <c r="C68">
-        <v>0.009732354125928648</v>
+        <v>0.001966810081889425</v>
       </c>
       <c r="D68">
-        <v>0.02209854911621315</v>
+        <v>0.00291273218677968</v>
       </c>
       <c r="E68">
-        <v>0.01633614690432143</v>
+        <v>0.002720511084871736</v>
       </c>
       <c r="F68">
-        <v>0.02269904616597833</v>
+        <v>0.003065078779830641</v>
       </c>
       <c r="G68">
-        <v>0.02614901123930818</v>
+        <v>0.003345303452246773</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.653593879218712</v>
+        <v>-0.5231512438126203</v>
       </c>
       <c r="C69">
-        <v>0.3373073866519026</v>
+        <v>0.1998123991788628</v>
       </c>
       <c r="D69">
-        <v>0.2452302030995168</v>
+        <v>0.1963462588185464</v>
       </c>
       <c r="E69">
-        <v>0.2598873835518071</v>
+        <v>0.4869828951711331</v>
       </c>
       <c r="F69">
-        <v>0.3314892842707126</v>
+        <v>0.2479070398690921</v>
       </c>
       <c r="G69">
-        <v>0.5390496940313216</v>
+        <v>0.4344937187497111</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.003591508062080519</v>
+        <v>-0.005104587865462556</v>
       </c>
       <c r="C70">
-        <v>0.001643168670676372</v>
+        <v>0.001562343467328624</v>
       </c>
       <c r="D70">
-        <v>0.002538234363136486</v>
+        <v>0.003640353404313768</v>
       </c>
       <c r="E70">
-        <v>0.002525226335760738</v>
+        <v>0.00321120181373456</v>
       </c>
       <c r="F70">
-        <v>0.002172093733761832</v>
+        <v>0.002984987168272197</v>
       </c>
       <c r="G70">
-        <v>0.002766626792123133</v>
+        <v>0.003197959673768402</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.5073181831603175</v>
+        <v>-1.150210637071533</v>
       </c>
       <c r="C71">
-        <v>0.2303644905993198</v>
+        <v>0.8675833877329319</v>
       </c>
       <c r="D71">
-        <v>0.08048347743896822</v>
+        <v>0.3246351160362265</v>
       </c>
       <c r="E71">
-        <v>0.3578109787391989</v>
+        <v>1.043656993892692</v>
       </c>
       <c r="F71">
-        <v>0.4960176415665741</v>
+        <v>-0.05473250088431018</v>
       </c>
       <c r="G71">
-        <v>0.4968349953518559</v>
+        <v>1.118541574051491</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2030,22 +2030,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.03019794239780044</v>
+        <v>-0.7857968353668907</v>
       </c>
       <c r="C72">
-        <v>0.01067548048012372</v>
+        <v>0.4090361429832915</v>
       </c>
       <c r="D72">
-        <v>0.02154103521024642</v>
+        <v>0.1108444098967861</v>
       </c>
       <c r="E72">
-        <v>0.02143714437027869</v>
+        <v>0.7543530578648899</v>
       </c>
       <c r="F72">
-        <v>0.02342119308829723</v>
+        <v>0.4669260327538788</v>
       </c>
       <c r="G72">
-        <v>0.02503061491605256</v>
+        <v>0.646040320632559</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2053,22 +2053,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.003295301498174568</v>
+        <v>-0.003879541489279477</v>
       </c>
       <c r="C73">
-        <v>0.001665349047454366</v>
+        <v>0.001326142336340093</v>
       </c>
       <c r="D73">
-        <v>0.002179646914358258</v>
+        <v>0.002782597449395853</v>
       </c>
       <c r="E73">
-        <v>0.001719105390549632</v>
+        <v>0.002528722107023477</v>
       </c>
       <c r="F73">
-        <v>0.002674486796197561</v>
+        <v>0.002998438309938624</v>
       </c>
       <c r="G73">
-        <v>0.002834196590660881</v>
+        <v>0.00307643223299939</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2076,22 +2076,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.9258774474436741</v>
+        <v>-1.611501655560627</v>
       </c>
       <c r="C74">
-        <v>0.5610019701225445</v>
+        <v>1.158622228357654</v>
       </c>
       <c r="D74">
-        <v>0.02527230273589216</v>
+        <v>-0.1635506715611736</v>
       </c>
       <c r="E74">
-        <v>0.7162163635897616</v>
+        <v>1.006695358876737</v>
       </c>
       <c r="F74">
-        <v>0.06146650436199647</v>
+        <v>0.8001344404487136</v>
       </c>
       <c r="G74">
-        <v>1.326750861530219</v>
+        <v>1.23195547724338</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2099,22 +2099,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.4356614087404025</v>
+        <v>-0.8259331712394349</v>
       </c>
       <c r="C75">
-        <v>0.3168695226563856</v>
+        <v>0.05906961962238499</v>
       </c>
       <c r="D75">
-        <v>0.1867656365364929</v>
+        <v>0.4383010038668222</v>
       </c>
       <c r="E75">
-        <v>0.366393012664851</v>
+        <v>0.3812516594194129</v>
       </c>
       <c r="F75">
-        <v>0.2230933012578127</v>
+        <v>0.4146059808109739</v>
       </c>
       <c r="G75">
-        <v>0.4701846382102031</v>
+        <v>0.7447190697766011</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2122,22 +2122,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.03684651315653404</v>
+        <v>-0.9951287960249041</v>
       </c>
       <c r="C76">
-        <v>0.01387881214557075</v>
+        <v>0.4847161782946572</v>
       </c>
       <c r="D76">
-        <v>0.02646834490024002</v>
+        <v>0.05939367570223322</v>
       </c>
       <c r="E76">
-        <v>0.02379693662832058</v>
+        <v>0.6058493409707493</v>
       </c>
       <c r="F76">
-        <v>0.02359119333562451</v>
+        <v>0.8013911406925827</v>
       </c>
       <c r="G76">
-        <v>0.02621140344808203</v>
+        <v>0.7079938430598302</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2145,22 +2145,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.4600234393897699</v>
+        <v>-0.7521924811879004</v>
       </c>
       <c r="C77">
-        <v>0.2717122710442932</v>
+        <v>0.1558425077381862</v>
       </c>
       <c r="D77">
-        <v>0.2451752143105054</v>
+        <v>0.2334727993656921</v>
       </c>
       <c r="E77">
-        <v>0.1854834479344437</v>
+        <v>0.5344644002555883</v>
       </c>
       <c r="F77">
-        <v>0.311972998881845</v>
+        <v>0.4351753429061896</v>
       </c>
       <c r="G77">
-        <v>0.4270757339356419</v>
+        <v>0.8598650451731812</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2168,22 +2168,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-1.25013450720362</v>
+        <v>-0.003357334212918569</v>
       </c>
       <c r="C78">
-        <v>0.4620429769619214</v>
+        <v>0.00140800214583581</v>
       </c>
       <c r="D78">
-        <v>0.457331084379321</v>
+        <v>0.002467534997691639</v>
       </c>
       <c r="E78">
-        <v>1.258123532500507</v>
+        <v>0.002156978153880531</v>
       </c>
       <c r="F78">
-        <v>0.3393936580276408</v>
+        <v>0.003006297372164931</v>
       </c>
       <c r="G78">
-        <v>0.6030809024314052</v>
+        <v>0.002804406269610342</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2191,22 +2191,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.8987612355235769</v>
+        <v>-1.146515767140055</v>
       </c>
       <c r="C79">
-        <v>0.6301152638510854</v>
+        <v>0.6350516243923545</v>
       </c>
       <c r="D79">
-        <v>0.1609155725842038</v>
+        <v>-0.1204130225589445</v>
       </c>
       <c r="E79">
-        <v>0.5763527661129317</v>
+        <v>0.6442106707512111</v>
       </c>
       <c r="F79">
-        <v>0.3322974623776897</v>
+        <v>0.7175155695124644</v>
       </c>
       <c r="G79">
-        <v>0.9034229663983</v>
+        <v>1.024550842214584</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2214,22 +2214,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.004384210081599472</v>
+        <v>-0.5137011698403843</v>
       </c>
       <c r="C80">
-        <v>0.001959183340086439</v>
+        <v>0.2727106430912494</v>
       </c>
       <c r="D80">
-        <v>0.003145543652681186</v>
+        <v>0.2311206832836988</v>
       </c>
       <c r="E80">
-        <v>0.001985797230795303</v>
+        <v>0.2873122847302591</v>
       </c>
       <c r="F80">
-        <v>0.002661091807974237</v>
+        <v>0.3474967000226185</v>
       </c>
       <c r="G80">
-        <v>0.00305804888186038</v>
+        <v>0.4384915124738946</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2237,22 +2237,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.004387236836817651</v>
+        <v>-0.7763182075308046</v>
       </c>
       <c r="C81">
-        <v>0.001499498896078567</v>
+        <v>0.3616821846664629</v>
       </c>
       <c r="D81">
-        <v>0.00318604686962216</v>
+        <v>0.361371886609074</v>
       </c>
       <c r="E81">
-        <v>0.002753410879387715</v>
+        <v>0.2064871134117779</v>
       </c>
       <c r="F81">
-        <v>0.002530794100334516</v>
+        <v>0.493911447467922</v>
       </c>
       <c r="G81">
-        <v>0.002782721613720417</v>
+        <v>0.4791480173404308</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2260,22 +2260,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.6137156535644246</v>
+        <v>-1.048590221979295</v>
       </c>
       <c r="C82">
-        <v>0.04887847562500873</v>
+        <v>0.376362566663167</v>
       </c>
       <c r="D82">
-        <v>0.1244507656218836</v>
+        <v>0.4505503387854854</v>
       </c>
       <c r="E82">
-        <v>0.50192482691344</v>
+        <v>0.3843719457191406</v>
       </c>
       <c r="F82">
-        <v>0.253846122298584</v>
+        <v>0.4603652811156461</v>
       </c>
       <c r="G82">
-        <v>1.031026941722417</v>
+        <v>1.018701519793604</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2283,22 +2283,22 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.4992340742475217</v>
+        <v>-1.130431123406499</v>
       </c>
       <c r="C83">
-        <v>0.2760204497255622</v>
+        <v>0.6548158563224536</v>
       </c>
       <c r="D83">
-        <v>0.3101386831770003</v>
+        <v>-0.137825484842384</v>
       </c>
       <c r="E83">
-        <v>0.3390357324205335</v>
+        <v>0.8165283299749776</v>
       </c>
       <c r="F83">
-        <v>0.2241725098148519</v>
+        <v>0.5500073016122377</v>
       </c>
       <c r="G83">
-        <v>0.3969888901307417</v>
+        <v>1.097926802690039</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2306,22 +2306,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.004081948934285832</v>
+        <v>-0.005006273948668313</v>
       </c>
       <c r="C84">
-        <v>0.001294558096203159</v>
+        <v>0.001667058854487494</v>
       </c>
       <c r="D84">
-        <v>0.002576740052573671</v>
+        <v>0.002904843354641927</v>
       </c>
       <c r="E84">
-        <v>0.002142818379092475</v>
+        <v>0.003360504321066632</v>
       </c>
       <c r="F84">
-        <v>0.003092528617761298</v>
+        <v>0.003231964542325876</v>
       </c>
       <c r="G84">
-        <v>0.00305015867835436</v>
+        <v>0.003370162026686279</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2329,22 +2329,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.6777125337802912</v>
+        <v>-0.004580238425321073</v>
       </c>
       <c r="C85">
-        <v>0.1987087472444596</v>
+        <v>0.00206245573557687</v>
       </c>
       <c r="D85">
-        <v>0.3162539851883861</v>
+        <v>0.003099167833823963</v>
       </c>
       <c r="E85">
-        <v>0.2552564254801483</v>
+        <v>0.002153060741056612</v>
       </c>
       <c r="F85">
-        <v>0.441258115479126</v>
+        <v>0.003121581302632983</v>
       </c>
       <c r="G85">
-        <v>0.6644461172837567</v>
+        <v>0.003511797224457153</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2352,22 +2352,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.6012615347454461</v>
+        <v>-0.003811434158175277</v>
       </c>
       <c r="C86">
-        <v>0.1008897218014224</v>
+        <v>0.002298939462735781</v>
       </c>
       <c r="D86">
-        <v>0.3791204808298426</v>
+        <v>0.002711566497431178</v>
       </c>
       <c r="E86">
-        <v>0.2269999756124786</v>
+        <v>0.002773770207901288</v>
       </c>
       <c r="F86">
-        <v>0.3321292710698455</v>
+        <v>0.002568154373601377</v>
       </c>
       <c r="G86">
-        <v>0.686966387763552</v>
+        <v>0.002611061613409427</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2375,22 +2375,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.5272910912660148</v>
+        <v>-0.5893576453858266</v>
       </c>
       <c r="C87">
-        <v>0.3045968351971905</v>
+        <v>0.3435504038309763</v>
       </c>
       <c r="D87">
-        <v>0.1471391091749168</v>
+        <v>0.2521904463004507</v>
       </c>
       <c r="E87">
-        <v>0.173566877609537</v>
+        <v>0.4819483213801806</v>
       </c>
       <c r="F87">
-        <v>0.399682314823875</v>
+        <v>0.2852678728127009</v>
       </c>
       <c r="G87">
-        <v>0.4879523309957765</v>
+        <v>0.510758837179361</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2398,22 +2398,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.9230859082636023</v>
+        <v>-0.6534207083006208</v>
       </c>
       <c r="C88">
-        <v>0.1411934203685446</v>
+        <v>0.2040600425703902</v>
       </c>
       <c r="D88">
-        <v>0.5874915797258585</v>
+        <v>0.3454715133371944</v>
       </c>
       <c r="E88">
-        <v>0.3913792499866029</v>
+        <v>0.2649473845809517</v>
       </c>
       <c r="F88">
-        <v>0.4786661061201497</v>
+        <v>0.4885023229610326</v>
       </c>
       <c r="G88">
-        <v>0.9260537325825626</v>
+        <v>0.5663828733966814</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2421,22 +2421,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.00413038880628336</v>
+        <v>-0.6854876471901737</v>
       </c>
       <c r="C89">
-        <v>0.001601610351969714</v>
+        <v>0.4931596433971333</v>
       </c>
       <c r="D89">
-        <v>0.00302264641156924</v>
+        <v>0.1298238968092407</v>
       </c>
       <c r="E89">
-        <v>0.002710526212099115</v>
+        <v>0.5084802975682027</v>
       </c>
       <c r="F89">
-        <v>0.002482266562985311</v>
+        <v>0.2792366706940966</v>
       </c>
       <c r="G89">
-        <v>0.002631116170205772</v>
+        <v>0.9603818863836785</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2444,22 +2444,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-1.135606275098644</v>
+        <v>-0.003410479359573584</v>
       </c>
       <c r="C90">
-        <v>0.5287931459515361</v>
+        <v>0.001651002772336553</v>
       </c>
       <c r="D90">
-        <v>0.0318787371549028</v>
+        <v>0.00238752346643448</v>
       </c>
       <c r="E90">
-        <v>0.5338877939674671</v>
+        <v>0.002303828613174937</v>
       </c>
       <c r="F90">
-        <v>0.6548033620456264</v>
+        <v>0.00266136598833546</v>
       </c>
       <c r="G90">
-        <v>1.152781213959582</v>
+        <v>0.003054447009872169</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2467,22 +2467,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.00274924230232641</v>
+        <v>-0.2058505407603137</v>
       </c>
       <c r="C91">
-        <v>0.001656710522330689</v>
+        <v>0.09382229748561036</v>
       </c>
       <c r="D91">
-        <v>0.001996850232934884</v>
+        <v>0.1350938235420022</v>
       </c>
       <c r="E91">
-        <v>0.001708879418321847</v>
+        <v>0.1258749307054581</v>
       </c>
       <c r="F91">
-        <v>0.001973268824225401</v>
+        <v>0.1432398644926935</v>
       </c>
       <c r="G91">
-        <v>0.002804150794465929</v>
+        <v>0.2068189783857174</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2490,22 +2490,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.8837848564226565</v>
+        <v>-0.03749628533328929</v>
       </c>
       <c r="C92">
-        <v>0.4539533965153558</v>
+        <v>0.01944745486294136</v>
       </c>
       <c r="D92">
-        <v>0.2280779173781079</v>
+        <v>0.02448860430237452</v>
       </c>
       <c r="E92">
-        <v>0.5930250250024484</v>
+        <v>0.0229389732467304</v>
       </c>
       <c r="F92">
-        <v>0.231569335423548</v>
+        <v>0.02746141039282399</v>
       </c>
       <c r="G92">
-        <v>1.042714040118192</v>
+        <v>0.02899704379070475</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2513,22 +2513,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.735355757974104</v>
+        <v>-0.2344658845147358</v>
       </c>
       <c r="C93">
-        <v>0.5106788739388265</v>
+        <v>0.112571968619043</v>
       </c>
       <c r="D93">
-        <v>-0.05588668616325717</v>
+        <v>0.1702192884629053</v>
       </c>
       <c r="E93">
-        <v>0.5393103808931217</v>
+        <v>0.1510105373498223</v>
       </c>
       <c r="F93">
-        <v>0.6795379432484446</v>
+        <v>0.1513679243518121</v>
       </c>
       <c r="G93">
-        <v>0.7275748993624763</v>
+        <v>0.1753537801393484</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2536,22 +2536,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-1.186072157119828</v>
+        <v>-0.2530249301081079</v>
       </c>
       <c r="C94">
-        <v>0.3938496509584738</v>
+        <v>0.08425295121536783</v>
       </c>
       <c r="D94">
-        <v>-0.4927640630866288</v>
+        <v>0.1666578561830089</v>
       </c>
       <c r="E94">
-        <v>0.6270015352123537</v>
+        <v>0.1243858226316983</v>
       </c>
       <c r="F94">
-        <v>0.4929931982621503</v>
+        <v>0.1997167184281733</v>
       </c>
       <c r="G94">
-        <v>1.803883555098764</v>
+        <v>0.1844838516673028</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2559,22 +2559,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.003706200588653395</v>
+        <v>-0.4935929404135663</v>
       </c>
       <c r="C95">
-        <v>0.001605477712764966</v>
+        <v>0.2596045659068141</v>
       </c>
       <c r="D95">
-        <v>0.00269559732167363</v>
+        <v>0.2807060433471832</v>
       </c>
       <c r="E95">
-        <v>0.002051350092099598</v>
+        <v>0.3030741970837078</v>
       </c>
       <c r="F95">
-        <v>0.002599841561772971</v>
+        <v>0.3056139186191459</v>
       </c>
       <c r="G95">
-        <v>0.002833526543138212</v>
+        <v>0.4266735955488353</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2582,22 +2582,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.02080227165948263</v>
+        <v>-0.5119828193011656</v>
       </c>
       <c r="C96">
-        <v>0.01569236460308063</v>
+        <v>0.2196539916313051</v>
       </c>
       <c r="D96">
-        <v>0.01284674536367384</v>
+        <v>0.2302561211088013</v>
       </c>
       <c r="E96">
-        <v>0.01139087106792777</v>
+        <v>0.3349803855301383</v>
       </c>
       <c r="F96">
-        <v>0.01887760591525554</v>
+        <v>0.3295392581280321</v>
       </c>
       <c r="G96">
-        <v>0.02538663213399683</v>
+        <v>0.5124215864533026</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2605,22 +2605,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.00244379978398908</v>
+        <v>-0.2776836257335667</v>
       </c>
       <c r="C97">
-        <v>0.0007831048141538183</v>
+        <v>0.09019329367254822</v>
       </c>
       <c r="D97">
-        <v>0.002219393776332716</v>
+        <v>0.1771632099006203</v>
       </c>
       <c r="E97">
-        <v>0.001797336363477813</v>
+        <v>0.1603015412850864</v>
       </c>
       <c r="F97">
-        <v>0.002042260671998577</v>
+        <v>0.1676087996039587</v>
       </c>
       <c r="G97">
-        <v>0.002451955713751973</v>
+        <v>0.2033669026572794</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2628,22 +2628,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.7648699794043181</v>
+        <v>-1.07743389310717</v>
       </c>
       <c r="C98">
-        <v>0.5459832845626967</v>
+        <v>0.5832234391124405</v>
       </c>
       <c r="D98">
-        <v>0.09828281424551177</v>
+        <v>0.1557735999914313</v>
       </c>
       <c r="E98">
-        <v>0.4179779903290352</v>
+        <v>0.6183265277508232</v>
       </c>
       <c r="F98">
-        <v>0.1302146337996504</v>
+        <v>0.6337819048981768</v>
       </c>
       <c r="G98">
-        <v>1.220835752326338</v>
+        <v>0.8639254537151044</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2651,22 +2651,22 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.5249449025292875</v>
+        <v>-0.7360957011966383</v>
       </c>
       <c r="C99">
-        <v>0.2036969810918641</v>
+        <v>0.1794639188339184</v>
       </c>
       <c r="D99">
-        <v>0.2050557422372455</v>
+        <v>0.1640668370959489</v>
       </c>
       <c r="E99">
-        <v>0.5216983525395246</v>
+        <v>0.8350890086041478</v>
       </c>
       <c r="F99">
-        <v>0.2664796840038305</v>
+        <v>0.5367115593126853</v>
       </c>
       <c r="G99">
-        <v>0.5468370138212002</v>
+        <v>0.5749059265088123</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2674,22 +2674,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.003221064065856623</v>
+        <v>-1.040251040906603</v>
       </c>
       <c r="C100">
-        <v>0.001607586902828924</v>
+        <v>0.4185794893396935</v>
       </c>
       <c r="D100">
-        <v>0.002228576837688291</v>
+        <v>0.2048840042927436</v>
       </c>
       <c r="E100">
-        <v>0.001621047568384161</v>
+        <v>0.29524692633192</v>
       </c>
       <c r="F100">
-        <v>0.002755791908875009</v>
+        <v>0.8402939043853733</v>
       </c>
       <c r="G100">
-        <v>0.002692344154191943</v>
+        <v>0.9961107686714008</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2697,22 +2697,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.003612680185814314</v>
+        <v>-0.5894139936347393</v>
       </c>
       <c r="C101">
-        <v>0.001956383975883206</v>
+        <v>0.2513076975686064</v>
       </c>
       <c r="D101">
-        <v>0.002677307771681816</v>
+        <v>0.3200895420408496</v>
       </c>
       <c r="E101">
-        <v>0.002252058339715749</v>
+        <v>0.3640231439063602</v>
       </c>
       <c r="F101">
-        <v>0.002277906102131396</v>
+        <v>0.3572415144305347</v>
       </c>
       <c r="G101">
-        <v>0.002619182530051752</v>
+        <v>0.3797031803394813</v>
       </c>
     </row>
   </sheetData>
